--- a/Additional_Exercise_Session_14.xlsx
+++ b/Additional_Exercise_Session_14.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saraswathy\Documents\GitHub\Boot_Camp_Assignments\Statistics_IV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saraswathy\Documents\GitHub\Statistics_IV\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -114,44 +114,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>382175</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>100254</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="30480" y="83820"/>
-          <a:ext cx="5838095" cy="5685714"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>350521</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -171,7 +133,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:srcRect t="903" r="4551"/>
         <a:stretch/>
       </xdr:blipFill>
@@ -179,6 +141,44 @@
         <a:xfrm>
           <a:off x="12542521" y="99060"/>
           <a:ext cx="4899659" cy="6691421"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>241293</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>168929</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="594360" y="182880"/>
+          <a:ext cx="5133333" cy="4923809"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -456,7 +456,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE19" sqref="AE19"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
